--- a/MeetRandom/out.xlsx
+++ b/MeetRandom/out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pryor\Documents\GitHubProjects\FEA\MeetRandom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4D7BD0CB-366A-4905-ACCE-78F71C59036F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CA9908CA-1A17-4201-92C5-013FCAC7BDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -21,54 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="41">
   <si>
-    <t>Rand 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36919.55869262104Rand 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31859.05995964457Rand 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31220.647159931712Rand 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75455.88314713047Rand 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43316.50636282888Rand 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40778.70841043625Dim: 200 Seed = 1  DG InteractionMEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 135086.4644838673Rand 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43715.613665428915Rand 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53230.32653162866Rand 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45084.45785684529Rand 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46184.94989635698Rand 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40152.72253717184Rand 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55386.23067446506Rand 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78529.14969375388Rand 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25563.375257455773Dim: 50 Random Init</t>
+    <t>Dim: 50 Random Init</t>
   </si>
   <si>
     <t>MEET</t>
@@ -86,10 +41,10 @@
     <t>Dim: 50 -1's init</t>
   </si>
   <si>
-    <t>Dim: 50 Random Init</t>
+    <t>Dim: 200 Random Init</t>
   </si>
   <si>
-    <t>Dim: 200 Random Init</t>
+    <t>Rand 50</t>
   </si>
   <si>
     <t>Rand 200</t>
@@ -132,6 +87,63 @@
   </si>
   <si>
     <t>Dim: 200 Seed = 1  DG Interaction</t>
+  </si>
+  <si>
+    <t>Dim: 200 Seed = 1  ODG and DG</t>
+  </si>
+  <si>
+    <t>ODG</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>MEE 5</t>
+  </si>
+  <si>
+    <t>MEE 20</t>
+  </si>
+  <si>
+    <t>MEE 50</t>
+  </si>
+  <si>
+    <t>MEE 100</t>
+  </si>
+  <si>
+    <t>Mee 400</t>
+  </si>
+  <si>
+    <t>MEE 1000</t>
+  </si>
+  <si>
+    <t>MEE 2000</t>
+  </si>
+  <si>
+    <t>DGT</t>
+  </si>
+  <si>
+    <t>DG 5</t>
+  </si>
+  <si>
+    <t>DG 20</t>
+  </si>
+  <si>
+    <t>DG 50</t>
+  </si>
+  <si>
+    <t>DG 100</t>
+  </si>
+  <si>
+    <t>DG 200</t>
+  </si>
+  <si>
+    <t>DG 400</t>
+  </si>
+  <si>
+    <t>DG 1000</t>
+  </si>
+  <si>
+    <t>DG 2000</t>
   </si>
 </sst>
 </file>
@@ -729,17 +741,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rand 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -750,535 +751,290 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$27:$C$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>7656.8296782251628</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10427.828618733287</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14808.830765682334</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7773.2364047065148</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12868.668024513145</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11827.692797836151</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>14630.690141290257</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16037.314784990598</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>23091.953690024871</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>12178.53264945402</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10169.419187928352</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10704.420892823211</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9016.6313301932896</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7814.5713638397601</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18352.058115795047</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13381.762683031613</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>11333.071299285844</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13319.308048881188</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>16918.672297858375</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$27:$C$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>7656.8296782251628</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10427.828618733287</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14808.830765682334</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7773.2364047065148</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12868.668024513145</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>11827.692797836151</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>14630.690141290257</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16037.314784990598</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>23091.953690024871</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>12178.53264945402</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10169.419187928352</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10704.420892823211</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9016.6313301932896</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7814.5713638397601</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>18352.058115795047</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13381.762683031613</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>11333.071299285844</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>13319.308048881188</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>16918.672297858375</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$27:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>MEET</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEE 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MEE 20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MEE 50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MEE 100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mee 400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MEE 1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MEE 2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DGT</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DG 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DG 20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DG 50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DG 100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DG 200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DG 400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DG 1000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>DG 2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ODG</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>DG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$K$17</c:f>
+              <c:f>Sheet1!$B$27:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>40307.253636375499</c:v>
+                  <c:v>43347.68844119725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39509.788915200697</c:v>
+                  <c:v>38304.388986903476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63537.913749752399</c:v>
+                  <c:v>45369.38553978147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38083.933081134099</c:v>
+                  <c:v>42128.697279322463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37711.975077877702</c:v>
+                  <c:v>42776.722269042068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33285.763971027598</c:v>
+                  <c:v>46435.875673194787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21723.287801689301</c:v>
+                  <c:v>49491.735096592944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25813.2006281678</c:v>
+                  <c:v>48528.033437360726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27776.039526777298</c:v>
+                  <c:v>99833.381040947643</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43715.6136654289</c:v>
+                  <c:v>40226.430450345673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37244.504371667375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40275.360845328622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38262.304770866787</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41961.067086794748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43664.849900474379</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47206.73241188364</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40904.648114972275</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97034.61018150374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393218.1956317242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBA7-455D-96D5-93CD2C525DCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rand 20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>32253.944803586201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34462.749953500002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55359.7175365769</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50641.680037904996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32521.1651902185</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32793.177681561501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24346.167367296599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32510.8271459262</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31090.7584434743</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53230.326531628598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBA7-455D-96D5-93CD2C525DCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rand 50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>53993.407838849897</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39999.725241992499</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50763.957051558398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48686.876657242901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59627.645535271702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31020.142951383401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27857.5203411154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30225.418010886999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36919.558692621002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45084.457856845198</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CBA7-455D-96D5-93CD2C525DCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rand 100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$20:$K$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>41139.2902194989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29469.351136023801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28646.080316732401</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31239.509200089899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54048.048271837601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42804.684412918803</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33429.305162476398</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40032.967350206498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31859.059959644499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46184.949896356899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CBA7-455D-96D5-93CD2C525DCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rand 200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$21:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>49310.736073059103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57756.677342274699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47744.167799401002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41752.345830480401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32752.106901037499</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30198.726616516498</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44634.522711483201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49823.627043022701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31220.647159931701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40152.722537171801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CBA7-455D-96D5-93CD2C525DCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rand 400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$22:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>73293.333370679</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25100.976874907799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35333.5007422134</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15141.5076615369</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55619.164818740901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33153.742651222499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37549.302154745099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21451.389121564502</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75455.8831471304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55386.230674464998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CBA7-455D-96D5-93CD2C525DCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rand 1000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>53489.288639102502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27584.620228457701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55427.928247662298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38409.870069485703</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36181.037787703302</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62443.931455970604</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42092.640832695703</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59789.709962996101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43316.506362828797</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78529.149693753803</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CBA7-455D-96D5-93CD2C525DCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MEET</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$24:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>112293.48906146199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64304.352686437902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74747.207337933796</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106763.29905349899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91710.089941512793</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77978.343736044597</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95880.418600121804</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121067.109257366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>101413.030801063</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>135086.46448386699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-CBA7-455D-96D5-93CD2C525DCA}"/>
+              <c16:uniqueId val="{00000000-F37D-47E9-8310-525DC55CBFC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1292,11 +1048,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="433085535"/>
-        <c:axId val="98074239"/>
+        <c:axId val="275205359"/>
+        <c:axId val="108327647"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="433085535"/>
+        <c:axId val="275205359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98074239"/>
+        <c:crossAx val="108327647"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1347,7 +1103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98074239"/>
+        <c:axId val="108327647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433085535"/>
+        <c:crossAx val="275205359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,37 +1166,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2032,23 +1757,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F7AB04-C622-4870-A677-B3E9F9576B20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5351435-42EE-41FC-A766-35E8A3F2C613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,178 +2091,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P335"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237:B335"/>
+    <sheetView topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>101789.673762028</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>223992.50303619701</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>278517.14552398201</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>193922.16518435301</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>144362.63151313199</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>242384.94533368599</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>201293.56603116699</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>216431.820938035</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>108153.38523800801</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>205596.02976142199</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>206567.72756187199</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>248580.66689591701</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>642123.47804588894</v>
@@ -2545,7 +2225,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>681300.67173070298</v>
@@ -2553,7 +2233,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>560226.27733865497</v>
@@ -2561,7 +2241,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>584008.94913673005</v>
@@ -2569,7 +2249,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>656598.88159715699</v>
@@ -2577,7 +2257,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>621840.72262084403</v>
@@ -2585,92 +2265,92 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>15491.2881518547</v>
@@ -2678,7 +2358,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>1168.0660890040399</v>
@@ -2686,7 +2366,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>2347.0318740231601</v>
@@ -2694,7 +2374,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>5285.8909526109301</v>
@@ -2702,7 +2382,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <v>3145.3122488898898</v>
@@ -2710,7 +2390,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>3509.7510155906298</v>
@@ -2718,12 +2398,12 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>10221.286364929199</v>
@@ -2731,7 +2411,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>11597.0952389743</v>
@@ -2739,7 +2419,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>5072.1897819742699</v>
@@ -2747,7 +2427,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B50">
         <v>2516.2952396421902</v>
@@ -2755,7 +2435,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>4740.7191823537596</v>
@@ -2763,7 +2443,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>1648.90780703566</v>
@@ -2771,12 +2451,12 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>18884.9958005144</v>
@@ -2784,7 +2464,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>5565.3313309181003</v>
@@ -2792,7 +2472,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>6098.7764493410396</v>
@@ -2800,7 +2480,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>2709.75135761416</v>
@@ -2808,7 +2488,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>3549.5458370400802</v>
@@ -2816,7 +2496,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>2909.0969374838401</v>
@@ -2824,7 +2504,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B60">
         <v>1996.6092535191201</v>
@@ -2832,12 +2512,12 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>1249.7843026426399</v>
@@ -2845,7 +2525,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <v>3812.3011676170299</v>
@@ -2853,7 +2533,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>5159.8658971928598</v>
@@ -2861,7 +2541,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <v>2017.71821256267</v>
@@ -2869,7 +2549,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B66">
         <v>7515.4677120808301</v>
@@ -2877,7 +2557,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <v>1243.93964265861</v>
@@ -2885,7 +2565,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <v>7213.3379518777001</v>
@@ -2893,12 +2573,12 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>17709.489775625301</v>
@@ -2906,7 +2586,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>4545.9627345269901</v>
@@ -2914,7 +2594,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>2602.5663468145999</v>
@@ -2922,7 +2602,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B73">
         <v>907.667096526411</v>
@@ -2930,7 +2610,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>2923.0451902638702</v>
@@ -2938,7 +2618,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>1726.99374643741</v>
@@ -2946,7 +2626,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <v>12033.689943375501</v>
@@ -2954,12 +2634,12 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <v>18280.1227605063</v>
@@ -2967,7 +2647,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>10907.191420332299</v>
@@ -2975,7 +2655,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>2205.08856874817</v>
@@ -2983,7 +2663,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B81">
         <v>5027.9770219546499</v>
@@ -2991,7 +2671,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B82">
         <v>2548.9929039792901</v>
@@ -2999,7 +2679,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B83">
         <v>7093.7454948959203</v>
@@ -3007,7 +2687,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B84">
         <v>4735.7696585776603</v>
@@ -3015,12 +2695,12 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <v>11150.0336447643</v>
@@ -3028,7 +2708,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>5795.96100788886</v>
@@ -3036,7 +2716,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>2696.2673774380501</v>
@@ -3044,7 +2724,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <v>11392.455497766699</v>
@@ -3052,7 +2732,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B90">
         <v>1597.69224413692</v>
@@ -3060,7 +2740,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B91">
         <v>5882.8253392450597</v>
@@ -3068,7 +2748,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B92">
         <v>2832.4114486609701</v>
@@ -3076,12 +2756,12 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B94">
         <v>17907.9855508527</v>
@@ -3089,7 +2769,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>4576.0400585466105</v>
@@ -3097,7 +2777,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>11484.974800563199</v>
@@ -3105,7 +2785,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>6076.4205400537403</v>
@@ -3113,7 +2793,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B98">
         <v>3447.03575191973</v>
@@ -3121,7 +2801,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B99">
         <v>1133.42209337137</v>
@@ -3129,7 +2809,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B100">
         <v>13531.0011832447</v>
@@ -3137,22 +2817,22 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B104">
         <v>41176.791612127498</v>
@@ -3160,7 +2840,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B105">
         <v>24619.142318834602</v>
@@ -3168,7 +2848,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B106">
         <v>28435.204184089602</v>
@@ -3176,7 +2856,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B107">
         <v>35135.700827178996</v>
@@ -3184,7 +2864,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B108">
         <v>64464.9001740241</v>
@@ -3192,7 +2872,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B109">
         <v>37487.514785081803</v>
@@ -3200,7 +2880,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B110">
         <v>36258.496044823798</v>
@@ -3208,7 +2888,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B111">
         <v>28974.200048011</v>
@@ -3216,12 +2896,12 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B113">
         <v>39551.912101291004</v>
@@ -3229,7 +2909,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>45132.537997886102</v>
@@ -3237,7 +2917,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B115">
         <v>42602.146130429501</v>
@@ -3245,7 +2925,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B116">
         <v>39500.599881222799</v>
@@ -3253,7 +2933,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B117">
         <v>67599.097378032195</v>
@@ -3261,7 +2941,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B118">
         <v>69440.449751231907</v>
@@ -3269,7 +2949,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>59330.727759809197</v>
@@ -3277,7 +2957,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B120">
         <v>27932.221365718498</v>
@@ -3285,7 +2965,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B121">
         <v>41236.2560611917</v>
@@ -3293,12 +2973,12 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B123">
         <v>48054.780501490597</v>
@@ -3306,7 +2986,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B124">
         <v>49341.854893679803</v>
@@ -3314,7 +2994,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B125">
         <v>58093.566667905201</v>
@@ -3322,7 +3002,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B126">
         <v>40385.468289595898</v>
@@ -3330,7 +3010,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B127">
         <v>34436.653596482603</v>
@@ -3338,7 +3018,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B128">
         <v>34653.965296034497</v>
@@ -3346,7 +3026,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B129">
         <v>37728.543016487798</v>
@@ -3354,7 +3034,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B130">
         <v>62066.092035684997</v>
@@ -3362,7 +3042,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B131">
         <v>38757.325385771001</v>
@@ -3370,12 +3050,12 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>37641.145931744199</v>
@@ -3383,7 +3063,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B134">
         <v>53301.231095391799</v>
@@ -3391,7 +3071,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B135">
         <v>54643.527875481799</v>
@@ -3399,7 +3079,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B136">
         <v>46613.853176479097</v>
@@ -3407,7 +3087,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B137">
         <v>37327.6864203367</v>
@@ -3415,7 +3095,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B138">
         <v>30744.152586182499</v>
@@ -3423,7 +3103,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B139">
         <v>45213.4575152701</v>
@@ -3431,7 +3111,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B140">
         <v>33528.811968369999</v>
@@ -3439,7 +3119,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B141">
         <v>54580.320934731702</v>
@@ -3447,12 +3127,12 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B143">
         <v>53201.129192713801</v>
@@ -3460,7 +3140,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B144">
         <v>28657.526504635702</v>
@@ -3468,7 +3148,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B145">
         <v>30125.033986368999</v>
@@ -3476,7 +3156,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B146">
         <v>42426.723851508897</v>
@@ -3484,7 +3164,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B147">
         <v>57587.294205107297</v>
@@ -3492,7 +3172,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B148">
         <v>44830.967394411899</v>
@@ -3500,7 +3180,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B149">
         <v>53618.040643155902</v>
@@ -3508,7 +3188,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B150">
         <v>45817.028130835402</v>
@@ -3516,7 +3196,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B151">
         <v>40776.534313891098</v>
@@ -3524,12 +3204,12 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B153">
         <v>40426.104616104501</v>
@@ -3537,7 +3217,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B154">
         <v>27195.089183508499</v>
@@ -3545,7 +3225,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B155">
         <v>33726.673221440702</v>
@@ -3553,7 +3233,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B156">
         <v>31464.2441376682</v>
@@ -3561,7 +3241,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B157">
         <v>38407.585137096503</v>
@@ -3569,7 +3249,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B158">
         <v>35833.688799237498</v>
@@ -3577,7 +3257,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B159">
         <v>44679.207898372602</v>
@@ -3585,7 +3265,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B160">
         <v>51488.716988840897</v>
@@ -3593,7 +3273,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B161">
         <v>59343.507952185901</v>
@@ -3601,12 +3281,12 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>57918.433148657699</v>
@@ -3614,7 +3294,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B164">
         <v>28159.936889875</v>
@@ -3622,7 +3302,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B165">
         <v>30554.7564375818</v>
@@ -3630,7 +3310,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B166">
         <v>37333.160473223797</v>
@@ -3638,7 +3318,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B167">
         <v>26007.096586808901</v>
@@ -3646,7 +3326,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B168">
         <v>42306.762705686502</v>
@@ -3654,7 +3334,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B169">
         <v>34638.271707724503</v>
@@ -3662,7 +3342,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B170">
         <v>38073.7390152999</v>
@@ -3670,7 +3350,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B171">
         <v>49958.351219908101</v>
@@ -3678,12 +3358,12 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B173">
         <v>43268.793062131503</v>
@@ -3691,7 +3371,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B174">
         <v>47850.758402015999</v>
@@ -3699,7 +3379,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B175">
         <v>71030.905318881196</v>
@@ -3707,7 +3387,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B176">
         <v>61226.417199732103</v>
@@ -3715,7 +3395,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B177">
         <v>50362.704305846099</v>
@@ -3723,7 +3403,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B178">
         <v>59517.935464603201</v>
@@ -3731,7 +3411,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B179">
         <v>36895.672616978904</v>
@@ -3739,7 +3419,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B180">
         <v>84036.545224542293</v>
@@ -3747,7 +3427,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B181">
         <v>70442.187875906398</v>
@@ -3755,12 +3435,12 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B183">
         <v>33955.912578929201</v>
@@ -3768,7 +3448,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B184">
         <v>25182.756442419701</v>
@@ -3776,7 +3456,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B185">
         <v>28491.255128980902</v>
@@ -3784,7 +3464,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B186">
         <v>38688.376524784901</v>
@@ -3792,7 +3472,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B187">
         <v>28811.999028073002</v>
@@ -3800,7 +3480,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B188">
         <v>47868.6001480575</v>
@@ -3808,7 +3488,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B189">
         <v>84881.7407315413</v>
@@ -3816,7 +3496,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B190">
         <v>53641.891355536303</v>
@@ -3824,7 +3504,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B191">
         <v>54531.173026625598</v>
@@ -3832,12 +3512,12 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B193">
         <v>36110.9848377128</v>
@@ -3845,7 +3525,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B194">
         <v>39917.809472718604</v>
@@ -3853,7 +3533,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B195">
         <v>59056.605090963101</v>
@@ -3861,7 +3541,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B196">
         <v>41519.431979686502</v>
@@ -3869,7 +3549,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B197">
         <v>44450.383763595302</v>
@@ -3877,7 +3557,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B198">
         <v>52726.358913307602</v>
@@ -3885,7 +3565,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B199">
         <v>48439.9539799962</v>
@@ -3893,7 +3573,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B200">
         <v>40167.2548514183</v>
@@ -3901,7 +3581,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B201">
         <v>53213.450681448398</v>
@@ -3909,12 +3589,12 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B203">
         <v>146223.01597135499</v>
@@ -3922,7 +3602,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B204">
         <v>50081.620482717401</v>
@@ -3930,7 +3610,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B205">
         <v>43325.481423266101</v>
@@ -3938,7 +3618,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B206">
         <v>38264.117651772001</v>
@@ -3946,7 +3626,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B207">
         <v>38695.110866286203</v>
@@ -3954,7 +3634,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B208">
         <v>42665.397338744697</v>
@@ -3962,7 +3642,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B209">
         <v>37726.978533283</v>
@@ -3970,7 +3650,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B210">
         <v>39626.599108043498</v>
@@ -3978,7 +3658,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B211">
         <v>39412.216354502998</v>
@@ -3986,12 +3666,12 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B213">
         <v>85711.300678168802</v>
@@ -3999,7 +3679,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B214">
         <v>38629.346534806202</v>
@@ -4007,7 +3687,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B215">
         <v>39774.631280176698</v>
@@ -4015,7 +3695,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B216">
         <v>40010.8396919316</v>
@@ -4023,7 +3703,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B217">
         <v>54485.352329463902</v>
@@ -4031,7 +3711,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B218">
         <v>42268.634822601802</v>
@@ -4039,7 +3719,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B219">
         <v>60996.796259520001</v>
@@ -4047,7 +3727,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B220">
         <v>36014.117135214401</v>
@@ -4055,7 +3735,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B221">
         <v>50320.6771579411</v>
@@ -4063,12 +3743,12 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B223">
         <v>84655.831923487596</v>
@@ -4076,7 +3756,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B224">
         <v>62767.858783538999</v>
@@ -4084,7 +3764,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B225">
         <v>21867.929436559301</v>
@@ -4092,7 +3772,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B226">
         <v>21126.0234678011</v>
@@ -4100,7 +3780,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B227">
         <v>25376.252899732401</v>
@@ -4108,7 +3788,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B228">
         <v>35213.5599526066</v>
@@ -4116,7 +3796,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B229">
         <v>41434.242696158399</v>
@@ -4124,7 +3804,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B230">
         <v>40782.121830572803</v>
@@ -4132,7 +3812,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B231">
         <v>18716.872241158198</v>
@@ -4140,43 +3820,55 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>112293.48906146199</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B234">
+        <v>40307.253636375499</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>32253.944803586201</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B236">
+        <v>53993.407838849897</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B237">
-        <v>112293.48906146199</v>
+        <v>41139.2902194989</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B238">
-        <v>40307.253636375499</v>
+        <v>49310.736073059103</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,15 +3876,15 @@
         <v>17</v>
       </c>
       <c r="B239">
-        <v>32253.944803586201</v>
+        <v>73293.333370679</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B240">
-        <v>53993.407838849897</v>
+        <v>53489.288639102502</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,60 +3892,60 @@
         <v>19</v>
       </c>
       <c r="B241">
-        <v>41139.2902194989</v>
+        <v>63002.622130654199</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>23</v>
-      </c>
-      <c r="B242">
-        <v>49310.736073059103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B243">
-        <v>73293.333370679</v>
+        <v>64304.352686437902</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B244">
-        <v>53489.288639102502</v>
+        <v>39509.788915200697</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B245">
-        <v>63002.622130654199</v>
+        <v>34462.749953500002</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B246">
+        <v>39999.725241992499</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B247">
-        <v>64304.352686437902</v>
+        <v>29469.351136023801</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B248">
-        <v>39509.788915200697</v>
+        <v>57756.677342274699</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,15 +3953,15 @@
         <v>17</v>
       </c>
       <c r="B249">
-        <v>34462.749953500002</v>
+        <v>25100.976874907799</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B250">
-        <v>39999.725241992499</v>
+        <v>27584.620228457701</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4277,60 +3969,60 @@
         <v>19</v>
       </c>
       <c r="B251">
-        <v>29469.351136023801</v>
+        <v>40220.437892202703</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>23</v>
-      </c>
-      <c r="B252">
-        <v>57756.677342274699</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B253">
-        <v>25100.976874907799</v>
+        <v>74747.207337933796</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B254">
-        <v>27584.620228457701</v>
+        <v>63537.913749752399</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B255">
-        <v>40220.437892202703</v>
+        <v>55359.7175365769</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>50763.957051558398</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B257">
-        <v>74747.207337933796</v>
+        <v>28646.080316732401</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B258">
-        <v>63537.913749752399</v>
+        <v>47744.167799401002</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4338,15 +4030,15 @@
         <v>17</v>
       </c>
       <c r="B259">
-        <v>55359.7175365769</v>
+        <v>35333.5007422134</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B260">
-        <v>50763.957051558398</v>
+        <v>55427.928247662298</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4354,60 +4046,60 @@
         <v>19</v>
       </c>
       <c r="B261">
-        <v>28646.080316732401</v>
+        <v>47575.948630046201</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>23</v>
-      </c>
-      <c r="B262">
-        <v>47744.167799401002</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B263">
-        <v>35333.5007422134</v>
+        <v>106763.29905349899</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B264">
-        <v>55427.928247662298</v>
+        <v>38083.933081134099</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B265">
-        <v>47575.948630046201</v>
+        <v>50641.680037904996</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B266">
+        <v>48686.876657242901</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B267">
-        <v>106763.29905349899</v>
+        <v>31239.509200089899</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B268">
-        <v>38083.933081134099</v>
+        <v>41752.345830480401</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,15 +4107,15 @@
         <v>17</v>
       </c>
       <c r="B269">
-        <v>50641.680037904996</v>
+        <v>15141.5076615369</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B270">
-        <v>48686.876657242901</v>
+        <v>38409.870069485703</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,60 +4123,60 @@
         <v>19</v>
       </c>
       <c r="B271">
-        <v>31239.509200089899</v>
+        <v>42933.126448307798</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>23</v>
-      </c>
-      <c r="B272">
-        <v>41752.345830480401</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B273">
-        <v>15141.5076615369</v>
+        <v>91710.089941512793</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B274">
-        <v>38409.870069485703</v>
+        <v>37711.975077877702</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B275">
-        <v>42933.126448307798</v>
+        <v>32521.1651902185</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B276">
+        <v>59627.645535271702</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B277">
-        <v>91710.089941512793</v>
+        <v>54048.048271837601</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B278">
-        <v>37711.975077877702</v>
+        <v>32752.106901037499</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,15 +4184,15 @@
         <v>17</v>
       </c>
       <c r="B279">
-        <v>32521.1651902185</v>
+        <v>55619.164818740901</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B280">
-        <v>59627.645535271702</v>
+        <v>36181.037787703302</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,60 +4200,60 @@
         <v>19</v>
       </c>
       <c r="B281">
-        <v>54048.048271837601</v>
+        <v>34416.494685622303</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>23</v>
-      </c>
-      <c r="B282">
-        <v>32752.106901037499</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B283">
-        <v>55619.164818740901</v>
+        <v>77978.343736044597</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B284">
-        <v>36181.037787703302</v>
+        <v>33285.763971027598</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B285">
-        <v>34416.494685622303</v>
+        <v>32793.177681561501</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B286">
+        <v>31020.142951383401</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B287">
-        <v>77978.343736044597</v>
+        <v>42804.684412918803</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B288">
-        <v>33285.763971027598</v>
+        <v>30198.726616516498</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4569,15 +4261,15 @@
         <v>17</v>
       </c>
       <c r="B289">
-        <v>32793.177681561501</v>
+        <v>33153.742651222499</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B290">
-        <v>31020.142951383401</v>
+        <v>62443.931455970604</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4585,60 +4277,60 @@
         <v>19</v>
       </c>
       <c r="B291">
-        <v>42804.684412918803</v>
+        <v>29802.611717463002</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>23</v>
-      </c>
-      <c r="B292">
-        <v>30198.726616516498</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B293">
-        <v>33153.742651222499</v>
+        <v>95880.418600121804</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B294">
-        <v>62443.931455970604</v>
+        <v>21723.287801689301</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B295">
-        <v>29802.611717463002</v>
+        <v>24346.167367296599</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B296">
+        <v>27857.5203411154</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B297">
-        <v>95880.418600121804</v>
+        <v>33429.305162476398</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B298">
-        <v>21723.287801689301</v>
+        <v>44634.522711483201</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4646,15 +4338,15 @@
         <v>17</v>
       </c>
       <c r="B299">
-        <v>24346.167367296599</v>
+        <v>37549.302154745099</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B300">
-        <v>27857.5203411154</v>
+        <v>42092.640832695703</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4662,60 +4354,60 @@
         <v>19</v>
       </c>
       <c r="B301">
-        <v>33429.305162476398</v>
+        <v>49105.873553181998</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>23</v>
-      </c>
-      <c r="B302">
-        <v>44634.522711483201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B303">
-        <v>37549.302154745099</v>
+        <v>121067.109257366</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B304">
-        <v>42092.640832695703</v>
+        <v>25813.2006281678</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B305">
-        <v>49105.873553181998</v>
+        <v>32510.8271459262</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B306">
+        <v>30225.418010886999</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B307">
-        <v>121067.109257366</v>
+        <v>40032.967350206498</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B308">
-        <v>25813.2006281678</v>
+        <v>49823.627043022701</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4723,15 +4415,15 @@
         <v>17</v>
       </c>
       <c r="B309">
-        <v>32510.8271459262</v>
+        <v>21451.389121564502</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B310">
-        <v>30225.418010886999</v>
+        <v>59789.709962996101</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4739,60 +4431,60 @@
         <v>19</v>
       </c>
       <c r="B311">
-        <v>40032.967350206498</v>
+        <v>49911.461015667199</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>23</v>
-      </c>
-      <c r="B312">
-        <v>49823.627043022701</v>
+        <v>21</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B313">
-        <v>21451.389121564502</v>
+        <v>101413.030801063</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B314">
-        <v>59789.709962996101</v>
+        <v>27776.039526777298</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B315">
-        <v>49911.461015667199</v>
+        <v>31090.7584434743</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B316">
+        <v>36919.558692621002</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B317">
-        <v>101413.030801063</v>
+        <v>31859.059959644499</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B318">
-        <v>27776.039526777298</v>
+        <v>31220.647159931701</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,15 +4492,15 @@
         <v>17</v>
       </c>
       <c r="B319">
-        <v>31090.7584434743</v>
+        <v>75455.8831471304</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B320">
-        <v>36919.558692621002</v>
+        <v>43316.506362828797</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,60 +4508,60 @@
         <v>19</v>
       </c>
       <c r="B321">
-        <v>31859.059959644499</v>
+        <v>40778.7084104362</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>23</v>
-      </c>
-      <c r="B322">
-        <v>31220.647159931701</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B323">
-        <v>75455.8831471304</v>
+        <v>135086.46448386699</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B324">
-        <v>43316.506362828797</v>
+        <v>43715.6136654289</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B325">
-        <v>40778.7084104362</v>
+        <v>53230.326531628598</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B326">
+        <v>45084.457856845198</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B327">
-        <v>135086.46448386699</v>
+        <v>46184.949896356899</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B328">
-        <v>43715.6136654289</v>
+        <v>40152.722537171801</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,15 +4569,15 @@
         <v>17</v>
       </c>
       <c r="B329">
-        <v>53230.326531628598</v>
+        <v>55386.230674464998</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B330">
-        <v>45084.457856845198</v>
+        <v>78529.149693753803</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4893,39 +4585,317 @@
         <v>19</v>
       </c>
       <c r="B331">
-        <v>46184.949896356899</v>
+        <v>25563.3752574557</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>23</v>
-      </c>
-      <c r="B332">
-        <v>40152.722537171801</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>32</v>
-      </c>
-      <c r="B333">
-        <v>55386.230674464998</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>33</v>
-      </c>
-      <c r="B334">
-        <v>78529.149693753803</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>34</v>
-      </c>
-      <c r="B335">
-        <v>25563.3752574557</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>23</v>
+      </c>
+      <c r="B353">
+        <v>108573.10104916101</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>24</v>
+      </c>
+      <c r="B354">
+        <v>417722.89655413298</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>23</v>
+      </c>
+      <c r="B356">
+        <v>126953.21599701099</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>24</v>
+      </c>
+      <c r="B357">
+        <v>376416.18299238401</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359">
+        <v>102016.62343036001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>24</v>
+      </c>
+      <c r="B360">
+        <v>409491.70645923202</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362">
+        <v>105022.279948916</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363">
+        <v>369724.957225108</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365">
+        <v>85371.327483346904</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>24</v>
+      </c>
+      <c r="B366">
+        <v>407735.158761581</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368">
+        <v>80029.970023580507</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>24</v>
+      </c>
+      <c r="B369">
+        <v>414465.286455906</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>23</v>
+      </c>
+      <c r="B371">
+        <v>94890.857693693193</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>24</v>
+      </c>
+      <c r="B372">
+        <v>388598.58885961398</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>23</v>
+      </c>
+      <c r="B374">
+        <v>91951.386883666302</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>24</v>
+      </c>
+      <c r="B375">
+        <v>375098.60420301801</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377">
+        <v>83907.548866695099</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>24</v>
+      </c>
+      <c r="B378">
+        <v>380996.41205188603</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>23</v>
+      </c>
+      <c r="B380">
+        <v>91629.790438607393</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>24</v>
+      </c>
+      <c r="B381">
+        <v>391932.16275438003</v>
       </c>
     </row>
   </sheetData>
@@ -4935,615 +4905,1032 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>39551.912101291004</v>
+      </c>
+      <c r="C2">
+        <v>48054.780501490597</v>
+      </c>
+      <c r="D2">
+        <v>37641.145931744199</v>
+      </c>
+      <c r="E2">
+        <v>53201.129192713801</v>
+      </c>
+      <c r="F2">
+        <v>40426.104616104501</v>
+      </c>
+      <c r="G2">
+        <v>57918.433148657699</v>
+      </c>
+      <c r="H2">
+        <v>43268.793062131503</v>
+      </c>
+      <c r="I2">
+        <v>33955.912578929201</v>
+      </c>
+      <c r="J2">
+        <v>36110.9848377128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>45132.537997886102</v>
+      </c>
+      <c r="C3">
+        <v>49341.854893679803</v>
+      </c>
+      <c r="D3">
+        <v>53301.231095391799</v>
+      </c>
+      <c r="E3">
+        <v>28657.526504635702</v>
+      </c>
+      <c r="F3">
+        <v>27195.089183508499</v>
+      </c>
+      <c r="G3">
+        <v>28159.936889875</v>
+      </c>
+      <c r="H3">
+        <v>47850.758402015999</v>
+      </c>
+      <c r="I3">
+        <v>25182.756442419701</v>
+      </c>
+      <c r="J3">
+        <v>39917.809472718604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>42602.146130429501</v>
+      </c>
+      <c r="C4">
+        <v>58093.566667905201</v>
+      </c>
+      <c r="D4">
+        <v>54643.527875481799</v>
+      </c>
+      <c r="E4">
+        <v>30125.033986368999</v>
+      </c>
+      <c r="F4">
+        <v>33726.673221440702</v>
+      </c>
+      <c r="G4">
+        <v>30554.7564375818</v>
+      </c>
+      <c r="H4">
+        <v>71030.905318881196</v>
+      </c>
+      <c r="I4">
+        <v>28491.255128980902</v>
+      </c>
+      <c r="J4">
+        <v>59056.605090963101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>39500.599881222799</v>
+      </c>
+      <c r="C5">
+        <v>40385.468289595898</v>
+      </c>
+      <c r="D5">
+        <v>46613.853176479097</v>
+      </c>
+      <c r="E5">
+        <v>42426.723851508897</v>
+      </c>
+      <c r="F5">
+        <v>31464.2441376682</v>
+      </c>
+      <c r="G5">
+        <v>37333.160473223797</v>
+      </c>
+      <c r="H5">
+        <v>61226.417199732103</v>
+      </c>
+      <c r="I5">
+        <v>38688.376524784901</v>
+      </c>
+      <c r="J5">
+        <v>41519.431979686502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>67599.097378032195</v>
+      </c>
+      <c r="C6">
+        <v>34436.653596482603</v>
+      </c>
+      <c r="D6">
+        <v>37327.6864203367</v>
+      </c>
+      <c r="E6">
+        <v>57587.294205107297</v>
+      </c>
+      <c r="F6">
+        <v>38407.585137096503</v>
+      </c>
+      <c r="G6">
+        <v>26007.096586808901</v>
+      </c>
+      <c r="H6">
+        <v>50362.704305846099</v>
+      </c>
+      <c r="I6">
+        <v>28811.999028073002</v>
+      </c>
+      <c r="J6">
+        <v>44450.383763595302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>69440.449751231907</v>
+      </c>
+      <c r="C7">
+        <v>34653.965296034497</v>
+      </c>
+      <c r="D7">
+        <v>30744.152586182499</v>
+      </c>
+      <c r="E7">
+        <v>44830.967394411899</v>
+      </c>
+      <c r="F7">
+        <v>35833.688799237498</v>
+      </c>
+      <c r="G7">
+        <v>42306.762705686502</v>
+      </c>
+      <c r="H7">
+        <v>59517.935464603201</v>
+      </c>
+      <c r="I7">
+        <v>47868.6001480575</v>
+      </c>
+      <c r="J7">
+        <v>52726.358913307602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>59330.727759809197</v>
+      </c>
+      <c r="C8">
+        <v>37728.543016487798</v>
+      </c>
+      <c r="D8">
+        <v>45213.4575152701</v>
+      </c>
+      <c r="E8">
+        <v>53618.040643155902</v>
+      </c>
+      <c r="F8">
+        <v>44679.207898372602</v>
+      </c>
+      <c r="G8">
+        <v>34638.271707724503</v>
+      </c>
+      <c r="H8">
+        <v>36895.672616978904</v>
+      </c>
+      <c r="I8">
+        <v>84881.7407315413</v>
+      </c>
+      <c r="J8">
+        <v>48439.9539799962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>27932.221365718498</v>
+      </c>
+      <c r="C9">
+        <v>62066.092035684997</v>
+      </c>
+      <c r="D9">
+        <v>33528.811968369999</v>
+      </c>
+      <c r="E9">
+        <v>45817.028130835402</v>
+      </c>
+      <c r="F9">
+        <v>51488.716988840897</v>
+      </c>
+      <c r="G9">
+        <v>38073.7390152999</v>
+      </c>
+      <c r="H9">
+        <v>84036.545224542293</v>
+      </c>
+      <c r="I9">
+        <v>53641.891355536303</v>
+      </c>
+      <c r="J9">
+        <v>40167.2548514183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>41236.2560611917</v>
+      </c>
+      <c r="C10">
+        <v>38757.325385771001</v>
+      </c>
+      <c r="D10">
+        <v>54580.320934731702</v>
+      </c>
+      <c r="E10">
+        <v>40776.534313891098</v>
+      </c>
+      <c r="F10">
+        <v>59343.507952185901</v>
+      </c>
+      <c r="G10">
+        <v>49958.351219908101</v>
+      </c>
+      <c r="H10">
+        <v>70442.187875906398</v>
+      </c>
+      <c r="I10">
+        <v>54531.173026625598</v>
+      </c>
+      <c r="J10">
+        <v>53213.450681448398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>146223.01597135499</v>
+      </c>
+      <c r="C12">
+        <v>85711.300678168802</v>
+      </c>
+      <c r="D12">
+        <v>84655.831923487596</v>
+      </c>
+      <c r="E12">
         <v>112293.48906146199</v>
       </c>
-      <c r="C1">
+      <c r="F12">
         <v>64304.352686437902</v>
       </c>
-      <c r="D1">
+      <c r="G12">
         <v>74747.207337933796</v>
       </c>
-      <c r="E1">
+      <c r="H12">
         <v>106763.29905349899</v>
       </c>
-      <c r="F1">
+      <c r="I12">
         <v>91710.089941512793</v>
       </c>
-      <c r="G1">
+      <c r="J12">
         <v>77978.343736044597</v>
       </c>
-      <c r="H1">
+      <c r="K12">
         <v>95880.418600121804</v>
       </c>
-      <c r="I1">
+      <c r="L12">
         <v>121067.109257366</v>
       </c>
-      <c r="J1">
+      <c r="M12">
         <v>101413.030801063</v>
       </c>
-      <c r="K1">
+      <c r="N12">
         <v>135086.46448386699</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>50081.620482717401</v>
+      </c>
+      <c r="C13">
+        <v>38629.346534806202</v>
+      </c>
+      <c r="D13">
+        <v>62767.858783538999</v>
+      </c>
+      <c r="E13">
+        <v>40307.253636375499</v>
+      </c>
+      <c r="F13">
+        <v>39509.788915200697</v>
+      </c>
+      <c r="G13">
+        <v>63537.913749752399</v>
+      </c>
+      <c r="H13">
+        <v>38083.933081134099</v>
+      </c>
+      <c r="I13">
+        <v>37711.975077877702</v>
+      </c>
+      <c r="J13">
+        <v>33285.763971027598</v>
+      </c>
+      <c r="K13">
+        <v>21723.287801689301</v>
+      </c>
+      <c r="L13">
+        <v>25813.2006281678</v>
+      </c>
+      <c r="M13">
+        <v>27776.039526777298</v>
+      </c>
+      <c r="N13">
+        <v>43715.6136654289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>43325.481423266101</v>
+      </c>
+      <c r="C14">
+        <v>39774.631280176698</v>
+      </c>
+      <c r="D14">
+        <v>21867.929436559301</v>
+      </c>
+      <c r="E14">
+        <v>32253.944803586201</v>
+      </c>
+      <c r="F14">
+        <v>34462.749953500002</v>
+      </c>
+      <c r="G14">
+        <v>55359.7175365769</v>
+      </c>
+      <c r="H14">
+        <v>50641.680037904996</v>
+      </c>
+      <c r="I14">
+        <v>32521.1651902185</v>
+      </c>
+      <c r="J14">
+        <v>32793.177681561501</v>
+      </c>
+      <c r="K14">
+        <v>24346.167367296599</v>
+      </c>
+      <c r="L14">
+        <v>32510.8271459262</v>
+      </c>
+      <c r="M14">
+        <v>31090.7584434743</v>
+      </c>
+      <c r="N14">
+        <v>53230.326531628598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>38264.117651772001</v>
+      </c>
+      <c r="C15">
+        <v>40010.8396919316</v>
+      </c>
+      <c r="D15">
+        <v>21126.0234678011</v>
+      </c>
+      <c r="E15">
+        <v>53993.407838849897</v>
+      </c>
+      <c r="F15">
+        <v>39999.725241992499</v>
+      </c>
+      <c r="G15">
+        <v>50763.957051558398</v>
+      </c>
+      <c r="H15">
+        <v>48686.876657242901</v>
+      </c>
+      <c r="I15">
+        <v>59627.645535271702</v>
+      </c>
+      <c r="J15">
+        <v>31020.142951383401</v>
+      </c>
+      <c r="K15">
+        <v>27857.5203411154</v>
+      </c>
+      <c r="L15">
+        <v>30225.418010886999</v>
+      </c>
+      <c r="M15">
+        <v>36919.558692621002</v>
+      </c>
+      <c r="N15">
+        <v>45084.457856845198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>38695.110866286203</v>
+      </c>
+      <c r="C16">
+        <v>54485.352329463902</v>
+      </c>
+      <c r="D16">
+        <v>25376.252899732401</v>
+      </c>
+      <c r="E16">
         <v>41139.2902194989</v>
       </c>
-      <c r="C2">
+      <c r="F16">
         <v>29469.351136023801</v>
       </c>
-      <c r="D2">
+      <c r="G16">
         <v>28646.080316732401</v>
       </c>
-      <c r="E2">
+      <c r="H16">
         <v>31239.509200089899</v>
       </c>
-      <c r="F2">
+      <c r="I16">
         <v>54048.048271837601</v>
       </c>
-      <c r="G2">
+      <c r="J16">
         <v>42804.684412918803</v>
       </c>
-      <c r="H2">
+      <c r="K16">
         <v>33429.305162476398</v>
       </c>
-      <c r="I2">
+      <c r="L16">
         <v>40032.967350206498</v>
       </c>
-      <c r="J2">
+      <c r="M16">
         <v>31859.059959644499</v>
       </c>
-      <c r="K2">
+      <c r="N16">
         <v>46184.949896356899</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>53489.288639102502</v>
-      </c>
-      <c r="C3">
-        <v>27584.620228457701</v>
-      </c>
-      <c r="D3">
-        <v>55427.928247662298</v>
-      </c>
-      <c r="E3">
-        <v>38409.870069485703</v>
-      </c>
-      <c r="F3">
-        <v>36181.037787703302</v>
-      </c>
-      <c r="G3">
-        <v>62443.931455970604</v>
-      </c>
-      <c r="H3">
-        <v>42092.640832695703</v>
-      </c>
-      <c r="I3">
-        <v>59789.709962996101</v>
-      </c>
-      <c r="J3">
-        <v>43316.506362828797</v>
-      </c>
-      <c r="K3">
-        <v>78529.149693753803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>32253.944803586201</v>
-      </c>
-      <c r="C4">
-        <v>34462.749953500002</v>
-      </c>
-      <c r="D4">
-        <v>55359.7175365769</v>
-      </c>
-      <c r="E4">
-        <v>50641.680037904996</v>
-      </c>
-      <c r="F4">
-        <v>32521.1651902185</v>
-      </c>
-      <c r="G4">
-        <v>32793.177681561501</v>
-      </c>
-      <c r="H4">
-        <v>24346.167367296599</v>
-      </c>
-      <c r="I4">
-        <v>32510.8271459262</v>
-      </c>
-      <c r="J4">
-        <v>31090.7584434743</v>
-      </c>
-      <c r="K4">
-        <v>53230.326531628598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>42665.397338744697</v>
+      </c>
+      <c r="C17">
+        <v>42268.634822601802</v>
+      </c>
+      <c r="D17">
+        <v>35213.5599526066</v>
+      </c>
+      <c r="E17">
         <v>49310.736073059103</v>
       </c>
-      <c r="C5">
+      <c r="F17">
         <v>57756.677342274699</v>
       </c>
-      <c r="D5">
+      <c r="G17">
         <v>47744.167799401002</v>
       </c>
-      <c r="E5">
+      <c r="H17">
         <v>41752.345830480401</v>
       </c>
-      <c r="F5">
+      <c r="I17">
         <v>32752.106901037499</v>
       </c>
-      <c r="G5">
+      <c r="J17">
         <v>30198.726616516498</v>
       </c>
-      <c r="H5">
+      <c r="K17">
         <v>44634.522711483201</v>
       </c>
-      <c r="I5">
+      <c r="L17">
         <v>49823.627043022701</v>
       </c>
-      <c r="J5">
+      <c r="M17">
         <v>31220.647159931701</v>
       </c>
-      <c r="K5">
+      <c r="N17">
         <v>40152.722537171801</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>63002.622130654199</v>
-      </c>
-      <c r="C6">
-        <v>40220.437892202703</v>
-      </c>
-      <c r="D6">
-        <v>47575.948630046201</v>
-      </c>
-      <c r="E6">
-        <v>42933.126448307798</v>
-      </c>
-      <c r="F6">
-        <v>34416.494685622303</v>
-      </c>
-      <c r="G6">
-        <v>29802.611717463002</v>
-      </c>
-      <c r="H6">
-        <v>49105.873553181998</v>
-      </c>
-      <c r="I6">
-        <v>49911.461015667199</v>
-      </c>
-      <c r="J6">
-        <v>40778.7084104362</v>
-      </c>
-      <c r="K6">
-        <v>25563.3752574557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>73293.333370679</v>
-      </c>
-      <c r="C7">
-        <v>25100.976874907799</v>
-      </c>
-      <c r="D7">
-        <v>35333.5007422134</v>
-      </c>
-      <c r="E7">
-        <v>15141.5076615369</v>
-      </c>
-      <c r="F7">
-        <v>55619.164818740901</v>
-      </c>
-      <c r="G7">
-        <v>33153.742651222499</v>
-      </c>
-      <c r="H7">
-        <v>37549.302154745099</v>
-      </c>
-      <c r="I7">
-        <v>21451.389121564502</v>
-      </c>
-      <c r="J7">
-        <v>75455.8831471304</v>
-      </c>
-      <c r="K7">
-        <v>55386.230674464998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>40307.253636375499</v>
-      </c>
-      <c r="C8">
-        <v>39509.788915200697</v>
-      </c>
-      <c r="D8">
-        <v>63537.913749752399</v>
-      </c>
-      <c r="E8">
-        <v>38083.933081134099</v>
-      </c>
-      <c r="F8">
-        <v>37711.975077877702</v>
-      </c>
-      <c r="G8">
-        <v>33285.763971027598</v>
-      </c>
-      <c r="H8">
-        <v>21723.287801689301</v>
-      </c>
-      <c r="I8">
-        <v>25813.2006281678</v>
-      </c>
-      <c r="J8">
-        <v>27776.039526777298</v>
-      </c>
-      <c r="K8">
-        <v>43715.6136654289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>53993.407838849897</v>
-      </c>
-      <c r="C9">
-        <v>39999.725241992499</v>
-      </c>
-      <c r="D9">
-        <v>50763.957051558398</v>
-      </c>
-      <c r="E9">
-        <v>48686.876657242901</v>
-      </c>
-      <c r="F9">
-        <v>59627.645535271702</v>
-      </c>
-      <c r="G9">
-        <v>31020.142951383401</v>
-      </c>
-      <c r="H9">
-        <v>27857.5203411154</v>
-      </c>
-      <c r="I9">
-        <v>30225.418010886999</v>
-      </c>
-      <c r="J9">
-        <v>36919.558692621002</v>
-      </c>
-      <c r="K9">
-        <v>45084.457856845198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>40307.253636375499</v>
-      </c>
-      <c r="C17">
-        <v>39509.788915200697</v>
-      </c>
-      <c r="D17">
-        <v>63537.913749752399</v>
-      </c>
-      <c r="E17">
-        <v>38083.933081134099</v>
-      </c>
-      <c r="F17">
-        <v>37711.975077877702</v>
-      </c>
-      <c r="G17">
-        <v>33285.763971027598</v>
-      </c>
-      <c r="H17">
-        <v>21723.287801689301</v>
-      </c>
-      <c r="I17">
-        <v>25813.2006281678</v>
-      </c>
-      <c r="J17">
-        <v>27776.039526777298</v>
-      </c>
-      <c r="K17">
-        <v>43715.6136654289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>32253.944803586201</v>
+        <v>37726.978533283</v>
       </c>
       <c r="C18">
-        <v>34462.749953500002</v>
+        <v>60996.796259520001</v>
       </c>
       <c r="D18">
-        <v>55359.7175365769</v>
+        <v>41434.242696158399</v>
       </c>
       <c r="E18">
-        <v>50641.680037904996</v>
+        <v>73293.333370679</v>
       </c>
       <c r="F18">
-        <v>32521.1651902185</v>
+        <v>25100.976874907799</v>
       </c>
       <c r="G18">
-        <v>32793.177681561501</v>
+        <v>35333.5007422134</v>
       </c>
       <c r="H18">
-        <v>24346.167367296599</v>
+        <v>15141.5076615369</v>
       </c>
       <c r="I18">
-        <v>32510.8271459262</v>
+        <v>55619.164818740901</v>
       </c>
       <c r="J18">
-        <v>31090.7584434743</v>
+        <v>33153.742651222499</v>
       </c>
       <c r="K18">
-        <v>53230.326531628598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37549.302154745099</v>
+      </c>
+      <c r="L18">
+        <v>21451.389121564502</v>
+      </c>
+      <c r="M18">
+        <v>75455.8831471304</v>
+      </c>
+      <c r="N18">
+        <v>55386.230674464998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>53993.407838849897</v>
+        <v>39626.599108043498</v>
       </c>
       <c r="C19">
-        <v>39999.725241992499</v>
+        <v>36014.117135214401</v>
       </c>
       <c r="D19">
-        <v>50763.957051558398</v>
+        <v>40782.121830572803</v>
       </c>
       <c r="E19">
-        <v>48686.876657242901</v>
+        <v>53489.288639102502</v>
       </c>
       <c r="F19">
-        <v>59627.645535271702</v>
+        <v>27584.620228457701</v>
       </c>
       <c r="G19">
-        <v>31020.142951383401</v>
+        <v>55427.928247662298</v>
       </c>
       <c r="H19">
-        <v>27857.5203411154</v>
+        <v>38409.870069485703</v>
       </c>
       <c r="I19">
-        <v>30225.418010886999</v>
+        <v>36181.037787703302</v>
       </c>
       <c r="J19">
-        <v>36919.558692621002</v>
+        <v>62443.931455970604</v>
       </c>
       <c r="K19">
-        <v>45084.457856845198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42092.640832695703</v>
+      </c>
+      <c r="L19">
+        <v>59789.709962996101</v>
+      </c>
+      <c r="M19">
+        <v>43316.506362828797</v>
+      </c>
+      <c r="N19">
+        <v>78529.149693753803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>41139.2902194989</v>
+        <v>39412.216354502998</v>
       </c>
       <c r="C20">
-        <v>29469.351136023801</v>
+        <v>50320.6771579411</v>
       </c>
       <c r="D20">
-        <v>28646.080316732401</v>
+        <v>18716.872241158198</v>
       </c>
       <c r="E20">
-        <v>31239.509200089899</v>
+        <v>63002.622130654199</v>
       </c>
       <c r="F20">
-        <v>54048.048271837601</v>
+        <v>40220.437892202703</v>
       </c>
       <c r="G20">
-        <v>42804.684412918803</v>
+        <v>47575.948630046201</v>
       </c>
       <c r="H20">
-        <v>33429.305162476398</v>
+        <v>42933.126448307798</v>
       </c>
       <c r="I20">
-        <v>40032.967350206498</v>
+        <v>34416.494685622303</v>
       </c>
       <c r="J20">
-        <v>31859.059959644499</v>
+        <v>29802.611717463002</v>
       </c>
       <c r="K20">
-        <v>46184.949896356899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49105.873553181998</v>
+      </c>
+      <c r="L20">
+        <v>49911.461015667199</v>
+      </c>
+      <c r="M20">
+        <v>40778.7084104362</v>
+      </c>
+      <c r="N20">
+        <v>25563.3752574557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
-        <v>49310.736073059103</v>
-      </c>
-      <c r="C21">
-        <v>57756.677342274699</v>
-      </c>
-      <c r="D21">
-        <v>47744.167799401002</v>
-      </c>
-      <c r="E21">
-        <v>41752.345830480401</v>
-      </c>
-      <c r="F21">
-        <v>32752.106901037499</v>
-      </c>
-      <c r="G21">
-        <v>30198.726616516498</v>
-      </c>
-      <c r="H21">
-        <v>44634.522711483201</v>
-      </c>
-      <c r="I21">
-        <v>49823.627043022701</v>
-      </c>
-      <c r="J21">
-        <v>31220.647159931701</v>
-      </c>
-      <c r="K21">
-        <v>40152.722537171801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>108573.10104916101</v>
+      </c>
+      <c r="C22">
+        <v>126953.21599701099</v>
+      </c>
+      <c r="D22">
+        <v>102016.62343036001</v>
+      </c>
+      <c r="E22">
+        <v>105022.279948916</v>
+      </c>
+      <c r="F22">
+        <v>85371.327483346904</v>
+      </c>
+      <c r="G22">
+        <v>80029.970023580507</v>
+      </c>
+      <c r="H22">
+        <v>94890.857693693193</v>
+      </c>
+      <c r="I22">
+        <v>91951.386883666302</v>
+      </c>
+      <c r="J22">
+        <v>83907.548866695099</v>
+      </c>
+      <c r="K22">
+        <v>91629.790438607393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>417722.89655413298</v>
+      </c>
+      <c r="C23">
+        <v>376416.18299238401</v>
+      </c>
+      <c r="D23">
+        <v>409491.70645923202</v>
+      </c>
+      <c r="E23">
+        <v>369724.957225108</v>
+      </c>
+      <c r="F23">
+        <v>407735.158761581</v>
+      </c>
+      <c r="G23">
+        <v>414465.286455906</v>
+      </c>
+      <c r="H23">
+        <v>388598.58885961398</v>
+      </c>
+      <c r="I23">
+        <v>375098.60420301801</v>
+      </c>
+      <c r="J23">
+        <v>380996.41205188603</v>
+      </c>
+      <c r="K23">
+        <v>391932.16275438003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B2:J2)</f>
+        <v>43347.68844119725</v>
+      </c>
+      <c r="C27">
+        <f>_xlfn.STDEV.P(B2:J2)</f>
+        <v>7656.8296782251628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B34" si="0">AVERAGE(B3:J3)</f>
+        <v>38304.388986903476</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C34" si="1">_xlfn.STDEV.P(B3:J3)</f>
+        <v>10427.828618733287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>45369.38553978147</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>14808.830765682334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>42128.697279322463</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>7773.2364047065148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>42776.722269042068</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>12868.668024513145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>46435.875673194787</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>11827.692797836151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>49491.735096592944</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>14630.690141290257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>48528.033437360726</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>16037.314784990598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
-        <v>73293.333370679</v>
-      </c>
-      <c r="C22">
-        <v>25100.976874907799</v>
-      </c>
-      <c r="D22">
-        <v>35333.5007422134</v>
-      </c>
-      <c r="E22">
-        <v>15141.5076615369</v>
-      </c>
-      <c r="F22">
-        <v>55619.164818740901</v>
-      </c>
-      <c r="G22">
-        <v>33153.742651222499</v>
-      </c>
-      <c r="H22">
-        <v>37549.302154745099</v>
-      </c>
-      <c r="I22">
-        <v>21451.389121564502</v>
-      </c>
-      <c r="J22">
-        <v>75455.8831471304</v>
-      </c>
-      <c r="K22">
-        <v>55386.230674464998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B35">
+        <f>AVERAGE(B12:N12)</f>
+        <v>99833.381040947643</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.STDEV.P(B12:N12)</f>
+        <v>23091.953690024871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
-        <v>53489.288639102502</v>
-      </c>
-      <c r="C23">
-        <v>27584.620228457701</v>
-      </c>
-      <c r="D23">
-        <v>55427.928247662298</v>
-      </c>
-      <c r="E23">
-        <v>38409.870069485703</v>
-      </c>
-      <c r="F23">
-        <v>36181.037787703302</v>
-      </c>
-      <c r="G23">
-        <v>62443.931455970604</v>
-      </c>
-      <c r="H23">
-        <v>42092.640832695703</v>
-      </c>
-      <c r="I23">
-        <v>59789.709962996101</v>
-      </c>
-      <c r="J23">
-        <v>43316.506362828797</v>
-      </c>
-      <c r="K23">
-        <v>78529.149693753803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>112293.48906146199</v>
-      </c>
-      <c r="C24">
-        <v>64304.352686437902</v>
-      </c>
-      <c r="D24">
-        <v>74747.207337933796</v>
-      </c>
-      <c r="E24">
-        <v>106763.29905349899</v>
-      </c>
-      <c r="F24">
-        <v>91710.089941512793</v>
-      </c>
-      <c r="G24">
-        <v>77978.343736044597</v>
-      </c>
-      <c r="H24">
-        <v>95880.418600121804</v>
-      </c>
-      <c r="I24">
-        <v>121067.109257366</v>
-      </c>
-      <c r="J24">
-        <v>101413.030801063</v>
-      </c>
-      <c r="K24">
-        <v>135086.46448386699</v>
+      <c r="B36">
+        <f t="shared" ref="B36:B43" si="2">AVERAGE(B13:N13)</f>
+        <v>40226.430450345673</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C43" si="3">_xlfn.STDEV.P(B13:N13)</f>
+        <v>12178.53264945402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>37244.504371667375</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>10169.419187928352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>40275.360845328622</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>10704.420892823211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>38262.304770866787</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>9016.6313301932896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>41961.067086794748</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>7814.5713638397601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>43664.849900474379</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>18352.058115795047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>47206.73241188364</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>13381.762683031613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>40904.648114972275</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>11333.071299285844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(B22:K22)</f>
+        <v>97034.61018150374</v>
+      </c>
+      <c r="C44">
+        <f>_xlfn.STDEV.P(B22:K22)</f>
+        <v>13319.308048881188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <f>AVERAGE(B23:K23)</f>
+        <v>393218.1956317242</v>
+      </c>
+      <c r="C45">
+        <f>_xlfn.STDEV.P(B23:K23)</f>
+        <v>16918.672297858375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>